--- a/public/Template.xlsx
+++ b/public/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BBF8267-DC7A-46C2-AE46-39AF2501EAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B587A5EB-4022-4D16-A81D-C8FFEC5D742A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B908B7A9-858B-4393-B196-92381808CDC6}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{B908B7A9-858B-4393-B196-92381808CDC6}"/>
   </bookViews>
   <sheets>
     <sheet name="members" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
-  <si>
-    <t>beneficiary_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
   <si>
     <t>amount</t>
   </si>
@@ -56,6 +53,15 @@
   </si>
   <si>
     <t>mobileMoneyNumber</t>
+  </si>
+  <si>
+    <t>beneficiaryName</t>
+  </si>
+  <si>
+    <t>serviceProvider</t>
+  </si>
+  <si>
+    <t>airtel</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEFF956-FEF1-44EF-B732-32E02A3384EB}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,25 +426,29 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>708216066</v>
@@ -447,12 +457,15 @@
         <v>200000</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>708216066</v>
@@ -461,12 +474,15 @@
         <v>4000000</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>708216066</v>
@@ -475,12 +491,15 @@
         <v>200000</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>708216066</v>
@@ -489,12 +508,15 @@
         <v>200000</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>708216066</v>
@@ -503,12 +525,15 @@
         <v>200000</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>708216066</v>
@@ -517,12 +542,15 @@
         <v>4000000</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>708216066</v>
@@ -531,12 +559,15 @@
         <v>4000000</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>708216066</v>
@@ -545,12 +576,15 @@
         <v>4000000</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>708216066</v>
@@ -559,12 +593,15 @@
         <v>4000000</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>708216066</v>
@@ -573,12 +610,15 @@
         <v>4000000</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>708216066</v>
@@ -587,12 +627,15 @@
         <v>4000000</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>708216066</v>
@@ -601,7 +644,10 @@
         <v>4000000</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
